--- a/src/main/resources/template/project_worksheet.xlsx
+++ b/src/main/resources/template/project_worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nohi/work/workspaces-nohi/demo/nohi-dd-miniprogram-server/src/main/resources/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nohi/work/workspaces/xyrx/xyrx-oa/code/service-dingtalk/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A8B0C-F305-1347-B2A6-098BA51E4FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E097343-7BA9-B04A-AE11-C7EB085B75EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,11 +49,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,14 +87,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,32 +133,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,177 +434,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH17" sqref="S17:AH17"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="13" width="5.83203125" customWidth="1"/>
-    <col min="14" max="34" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>1</v>
       </c>
-      <c r="F1" s="7">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7">
-        <v>3</v>
-      </c>
-      <c r="H1" s="7">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7">
-        <v>5</v>
-      </c>
-      <c r="J1" s="7">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7">
-        <v>9</v>
-      </c>
-      <c r="N1" s="7">
-        <v>10</v>
-      </c>
-      <c r="O1" s="7">
-        <v>11</v>
-      </c>
-      <c r="P1" s="7">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>13</v>
-      </c>
-      <c r="R1" s="7">
-        <v>14</v>
-      </c>
-      <c r="S1" s="7">
-        <v>15</v>
-      </c>
-      <c r="T1" s="7">
-        <v>16</v>
-      </c>
-      <c r="U1" s="7">
-        <v>17</v>
-      </c>
-      <c r="V1" s="7">
-        <v>18</v>
-      </c>
-      <c r="W1" s="7">
-        <v>19</v>
-      </c>
-      <c r="X1" s="7">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="7">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="7">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="7">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="7">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="7">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="7">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="7">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="7">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="7">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="7">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="7">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" ht="18" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="AE7" s="8"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D2" xr:uid="{CD864D54-969B-604C-8E0B-D57C64ADA081}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"对公,对私,风控,管理,生态"</formula1>
     </dataValidation>
